--- a/Week 1 - Clustering/Underweardata.xlsx
+++ b/Week 1 - Clustering/Underweardata.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\37994mvv\surfdrive\Colleges\Data Mining\2016\Data\Hwang_Underwear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merlijn\Documents\GitHub\Machine-Learning\Week 1 - Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12438" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Underweardata" sheetId="1" r:id="rId1"/>
     <sheet name="Attributes" sheetId="2" r:id="rId2"/>
-    <sheet name="Age" sheetId="4" r:id="rId3"/>
-    <sheet name="Brands" sheetId="3" r:id="rId4"/>
+    <sheet name="Brands" sheetId="3" r:id="rId3"/>
+    <sheet name="Age" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Attribute</t>
   </si>
@@ -31,39 +31,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>BYC (‘by’)</t>
-  </si>
-  <si>
-    <t>TRY (‘tr’)</t>
-  </si>
-  <si>
-    <t>VICMAN (‘vm’)</t>
-  </si>
-  <si>
-    <t>James Dean (‘jd’)</t>
-  </si>
-  <si>
-    <t>Michiko-London (‘ml’)</t>
-  </si>
-  <si>
-    <t>Benetton (‘bn’)</t>
-  </si>
-  <si>
-    <t>Bodyguard (‘bg’)</t>
-  </si>
-  <si>
-    <t>Calvin Klein (‘ck’)</t>
   </si>
   <si>
     <t>Comfortable</t>
@@ -111,19 +78,49 @@
     <t>Various sizes</t>
   </si>
   <si>
-    <t>10–29</t>
+    <t>&gt; 50</t>
   </si>
   <si>
-    <t>30–49</t>
+    <t>Dimension</t>
   </si>
   <si>
-    <t>&gt; 50</t>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>BYC ('by')</t>
+  </si>
+  <si>
+    <t>TRY ('tr')</t>
+  </si>
+  <si>
+    <t>VICMAN ('vm')</t>
+  </si>
+  <si>
+    <t>James Dean ('jd')</t>
+  </si>
+  <si>
+    <t>Michiko-London ('ml')</t>
+  </si>
+  <si>
+    <t>Benetton ('bn')</t>
+  </si>
+  <si>
+    <t>Bodyguard ('bg')</t>
+  </si>
+  <si>
+    <t>Calvin Klein ('ck')</t>
+  </si>
+  <si>
+    <t>30-49</t>
+  </si>
+  <si>
+    <t>10-29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,11 +604,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -638,24 +636,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,9 +669,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -711,7 +709,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -746,6 +744,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -781,9 +796,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -935,13 +967,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C665"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>6</v>
       </c>
@@ -963,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -974,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
@@ -985,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>10</v>
       </c>
@@ -996,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>11</v>
       </c>
@@ -1007,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1018,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1029,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1040,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1051,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1062,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1073,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1084,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1095,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1106,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1117,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1128,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1139,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1150,7 +1182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1161,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1172,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1183,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1194,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1205,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1216,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1227,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>12</v>
       </c>
@@ -1238,7 +1270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1249,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1260,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1271,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1282,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1293,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1304,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1315,7 +1347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1326,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1337,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1348,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1359,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1370,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1381,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1392,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1403,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1414,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1425,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1436,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1447,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1458,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1469,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1480,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1491,7 +1523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1502,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1513,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1524,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1535,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1546,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1557,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>1</v>
       </c>
@@ -1568,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1579,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1590,7 +1622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>12</v>
       </c>
@@ -1601,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1612,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1623,7 +1655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1634,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1645,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1656,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1667,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>12</v>
       </c>
@@ -1678,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1689,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1700,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1711,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>4</v>
       </c>
@@ -1722,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>1</v>
       </c>
@@ -1733,7 +1765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1744,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>7</v>
       </c>
@@ -1755,7 +1787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>7</v>
       </c>
@@ -1766,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>5</v>
       </c>
@@ -1777,7 +1809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>1</v>
       </c>
@@ -1788,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>1</v>
       </c>
@@ -1799,7 +1831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>1</v>
       </c>
@@ -1810,7 +1842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>5</v>
       </c>
@@ -1821,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1832,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>1</v>
       </c>
@@ -1843,7 +1875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1854,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>1</v>
       </c>
@@ -1865,7 +1897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>1</v>
       </c>
@@ -1876,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>1</v>
       </c>
@@ -1887,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>1</v>
       </c>
@@ -1898,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>1</v>
       </c>
@@ -1909,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>12</v>
       </c>
@@ -1920,7 +1952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>7</v>
       </c>
@@ -1931,7 +1963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>1</v>
       </c>
@@ -1942,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>1</v>
       </c>
@@ -1953,7 +1985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>1</v>
       </c>
@@ -1964,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>1</v>
       </c>
@@ -1975,7 +2007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>1</v>
       </c>
@@ -1986,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>1</v>
       </c>
@@ -1997,7 +2029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2008,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2019,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2030,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2041,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2052,7 +2084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2063,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2074,7 +2106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>6</v>
       </c>
@@ -2085,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2096,7 +2128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>1</v>
       </c>
@@ -2107,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>1</v>
       </c>
@@ -2118,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>6</v>
       </c>
@@ -2129,7 +2161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>2</v>
       </c>
@@ -2140,7 +2172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>1</v>
       </c>
@@ -2151,7 +2183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>2</v>
       </c>
@@ -2162,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>1</v>
       </c>
@@ -2173,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>4</v>
       </c>
@@ -2184,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>1</v>
       </c>
@@ -2195,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>1</v>
       </c>
@@ -2206,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>1</v>
       </c>
@@ -2217,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>2</v>
       </c>
@@ -2228,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>3</v>
       </c>
@@ -2239,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2250,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>1</v>
       </c>
@@ -2261,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2272,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>7</v>
       </c>
@@ -2283,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2294,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>5</v>
       </c>
@@ -2305,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>5</v>
       </c>
@@ -2316,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>1</v>
       </c>
@@ -2327,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>5</v>
       </c>
@@ -2338,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>5</v>
       </c>
@@ -2349,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>3</v>
       </c>
@@ -2360,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>1</v>
       </c>
@@ -2371,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>1</v>
       </c>
@@ -2382,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>1</v>
       </c>
@@ -2393,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>9</v>
       </c>
@@ -2404,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>4</v>
       </c>
@@ -2415,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>1</v>
       </c>
@@ -2426,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>4</v>
       </c>
@@ -2437,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>7</v>
       </c>
@@ -2448,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>1</v>
       </c>
@@ -2459,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>1</v>
       </c>
@@ -2470,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>1</v>
       </c>
@@ -2481,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>5</v>
       </c>
@@ -2492,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>1</v>
       </c>
@@ -2503,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>1</v>
       </c>
@@ -2514,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>1</v>
       </c>
@@ -2525,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>8</v>
       </c>
@@ -2536,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>1</v>
       </c>
@@ -2547,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>1</v>
       </c>
@@ -2558,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>1</v>
       </c>
@@ -2569,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>2</v>
       </c>
@@ -2580,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>5</v>
       </c>
@@ -2591,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>12</v>
       </c>
@@ -2602,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>12</v>
       </c>
@@ -2613,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>1</v>
       </c>
@@ -2624,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>1</v>
       </c>
@@ -2635,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>1</v>
       </c>
@@ -2646,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>1</v>
       </c>
@@ -2657,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>5</v>
       </c>
@@ -2668,7 +2700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>1</v>
       </c>
@@ -2679,7 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>12</v>
       </c>
@@ -2690,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>12</v>
       </c>
@@ -2701,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>1</v>
       </c>
@@ -2712,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>3</v>
       </c>
@@ -2723,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>2</v>
       </c>
@@ -2734,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>4</v>
       </c>
@@ -2745,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>4</v>
       </c>
@@ -2756,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>1</v>
       </c>
@@ -2767,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>1</v>
       </c>
@@ -2778,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>5</v>
       </c>
@@ -2789,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>1</v>
       </c>
@@ -2800,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>1</v>
       </c>
@@ -2811,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>1</v>
       </c>
@@ -2822,7 +2854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>12</v>
       </c>
@@ -2833,7 +2865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>4</v>
       </c>
@@ -2844,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>1</v>
       </c>
@@ -2855,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>12</v>
       </c>
@@ -2866,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>1</v>
       </c>
@@ -2877,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>5</v>
       </c>
@@ -2888,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>3</v>
       </c>
@@ -2899,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>1</v>
       </c>
@@ -2910,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>1</v>
       </c>
@@ -2921,7 +2953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>1</v>
       </c>
@@ -2932,7 +2964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>1</v>
       </c>
@@ -2943,7 +2975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>1</v>
       </c>
@@ -2954,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>2</v>
       </c>
@@ -2965,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>3</v>
       </c>
@@ -2976,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>3</v>
       </c>
@@ -2987,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>1</v>
       </c>
@@ -2998,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>12</v>
       </c>
@@ -3009,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>1</v>
       </c>
@@ -3020,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>1</v>
       </c>
@@ -3031,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>4</v>
       </c>
@@ -3042,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>1</v>
       </c>
@@ -3053,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>2</v>
       </c>
@@ -3064,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>3</v>
       </c>
@@ -3075,7 +3107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>4</v>
       </c>
@@ -3086,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>3</v>
       </c>
@@ -3097,7 +3129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>2</v>
       </c>
@@ -3108,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>2</v>
       </c>
@@ -3119,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>1</v>
       </c>
@@ -3130,7 +3162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>2</v>
       </c>
@@ -3141,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>5</v>
       </c>
@@ -3152,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>10</v>
       </c>
@@ -3163,7 +3195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>7</v>
       </c>
@@ -3174,7 +3206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>12</v>
       </c>
@@ -3185,7 +3217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>5</v>
       </c>
@@ -3196,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>2</v>
       </c>
@@ -3207,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>1</v>
       </c>
@@ -3218,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>3</v>
       </c>
@@ -3229,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>2</v>
       </c>
@@ -3240,7 +3272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>1</v>
       </c>
@@ -3251,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>1</v>
       </c>
@@ -3262,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>1</v>
       </c>
@@ -3273,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>4</v>
       </c>
@@ -3284,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>1</v>
       </c>
@@ -3295,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>5</v>
       </c>
@@ -3306,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>1</v>
       </c>
@@ -3317,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>5</v>
       </c>
@@ -3328,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>1</v>
       </c>
@@ -3339,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>2</v>
       </c>
@@ -3350,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>1</v>
       </c>
@@ -3361,7 +3393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>1</v>
       </c>
@@ -3372,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>1</v>
       </c>
@@ -3383,7 +3415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>1</v>
       </c>
@@ -3394,7 +3426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>2</v>
       </c>
@@ -3405,7 +3437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>1</v>
       </c>
@@ -3416,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>1</v>
       </c>
@@ -3427,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>8</v>
       </c>
@@ -3438,7 +3470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>4</v>
       </c>
@@ -3449,7 +3481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>1</v>
       </c>
@@ -3460,7 +3492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>1</v>
       </c>
@@ -3471,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>1</v>
       </c>
@@ -3482,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>1</v>
       </c>
@@ -3493,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>1</v>
       </c>
@@ -3504,7 +3536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>1</v>
       </c>
@@ -3515,7 +3547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>5</v>
       </c>
@@ -3526,7 +3558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>10</v>
       </c>
@@ -3537,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>2</v>
       </c>
@@ -3548,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>1</v>
       </c>
@@ -3559,7 +3591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>1</v>
       </c>
@@ -3570,7 +3602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>1</v>
       </c>
@@ -3581,7 +3613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>2</v>
       </c>
@@ -3592,7 +3624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>3</v>
       </c>
@@ -3603,7 +3635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>13</v>
       </c>
@@ -3614,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>4</v>
       </c>
@@ -3625,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>1</v>
       </c>
@@ -3636,7 +3668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>12</v>
       </c>
@@ -3647,7 +3679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>5</v>
       </c>
@@ -3658,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>12</v>
       </c>
@@ -3669,7 +3701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>1</v>
       </c>
@@ -3680,7 +3712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>1</v>
       </c>
@@ -3691,7 +3723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>10</v>
       </c>
@@ -3702,7 +3734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>1</v>
       </c>
@@ -3713,7 +3745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>1</v>
       </c>
@@ -3724,7 +3756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>1</v>
       </c>
@@ -3735,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>1</v>
       </c>
@@ -3746,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>1</v>
       </c>
@@ -3757,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>12</v>
       </c>
@@ -3768,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>1</v>
       </c>
@@ -3779,7 +3811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>1</v>
       </c>
@@ -3790,7 +3822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>2</v>
       </c>
@@ -3801,7 +3833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>1</v>
       </c>
@@ -3812,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>1</v>
       </c>
@@ -3823,7 +3855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>1</v>
       </c>
@@ -3834,7 +3866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>4</v>
       </c>
@@ -3845,7 +3877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>1</v>
       </c>
@@ -3856,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>5</v>
       </c>
@@ -3867,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>1</v>
       </c>
@@ -3878,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>1</v>
       </c>
@@ -3889,7 +3921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>3</v>
       </c>
@@ -3900,7 +3932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>1</v>
       </c>
@@ -3911,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>1</v>
       </c>
@@ -3922,7 +3954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>3</v>
       </c>
@@ -3933,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>1</v>
       </c>
@@ -3944,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>1</v>
       </c>
@@ -3955,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>7</v>
       </c>
@@ -3966,7 +3998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>6</v>
       </c>
@@ -3977,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>4</v>
       </c>
@@ -3988,7 +4020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>1</v>
       </c>
@@ -3999,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>4</v>
       </c>
@@ -4010,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>5</v>
       </c>
@@ -4021,7 +4053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>10</v>
       </c>
@@ -4032,7 +4064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>1</v>
       </c>
@@ -4043,7 +4075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>1</v>
       </c>
@@ -4054,7 +4086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>3</v>
       </c>
@@ -4065,7 +4097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>2</v>
       </c>
@@ -4076,7 +4108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>1</v>
       </c>
@@ -4087,7 +4119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>1</v>
       </c>
@@ -4098,7 +4130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>4</v>
       </c>
@@ -4109,7 +4141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>2</v>
       </c>
@@ -4120,7 +4152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>4</v>
       </c>
@@ -4131,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>1</v>
       </c>
@@ -4142,7 +4174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>4</v>
       </c>
@@ -4153,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>5</v>
       </c>
@@ -4164,7 +4196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>2</v>
       </c>
@@ -4175,7 +4207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>1</v>
       </c>
@@ -4186,7 +4218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>1</v>
       </c>
@@ -4197,7 +4229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>5</v>
       </c>
@@ -4208,7 +4240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>3</v>
       </c>
@@ -4219,7 +4251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>1</v>
       </c>
@@ -4230,7 +4262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>2</v>
       </c>
@@ -4241,7 +4273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>4</v>
       </c>
@@ -4252,7 +4284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <v>1</v>
       </c>
@@ -4263,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <v>1</v>
       </c>
@@ -4274,7 +4306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <v>5</v>
       </c>
@@ -4285,7 +4317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <v>1</v>
       </c>
@@ -4296,7 +4328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A306">
         <v>4</v>
       </c>
@@ -4307,7 +4339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A307">
         <v>5</v>
       </c>
@@ -4318,7 +4350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A308">
         <v>5</v>
       </c>
@@ -4329,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A309">
         <v>1</v>
       </c>
@@ -4340,7 +4372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A310">
         <v>1</v>
       </c>
@@ -4351,7 +4383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A311">
         <v>2</v>
       </c>
@@ -4362,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A312">
         <v>3</v>
       </c>
@@ -4373,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A313">
         <v>1</v>
       </c>
@@ -4384,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A314">
         <v>1</v>
       </c>
@@ -4395,7 +4427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A315">
         <v>1</v>
       </c>
@@ -4406,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A316">
         <v>1</v>
       </c>
@@ -4417,7 +4449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A317">
         <v>1</v>
       </c>
@@ -4428,7 +4460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A318">
         <v>1</v>
       </c>
@@ -4439,7 +4471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A319">
         <v>4</v>
       </c>
@@ -4450,7 +4482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A320">
         <v>1</v>
       </c>
@@ -4461,7 +4493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A321">
         <v>4</v>
       </c>
@@ -4472,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A322">
         <v>3</v>
       </c>
@@ -4483,7 +4515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A323">
         <v>1</v>
       </c>
@@ -4494,7 +4526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A324">
         <v>1</v>
       </c>
@@ -4505,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A325">
         <v>1</v>
       </c>
@@ -4516,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A326">
         <v>5</v>
       </c>
@@ -4527,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A327">
         <v>5</v>
       </c>
@@ -4538,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A328">
         <v>1</v>
       </c>
@@ -4549,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A329">
         <v>5</v>
       </c>
@@ -4560,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A330">
         <v>1</v>
       </c>
@@ -4571,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A331">
         <v>1</v>
       </c>
@@ -4582,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A332">
         <v>1</v>
       </c>
@@ -4593,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A333">
         <v>10</v>
       </c>
@@ -4604,7 +4636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A334">
         <v>6</v>
       </c>
@@ -4615,7 +4647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A335">
         <v>5</v>
       </c>
@@ -4626,7 +4658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A336">
         <v>5</v>
       </c>
@@ -4637,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A337">
         <v>1</v>
       </c>
@@ -4648,7 +4680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A338">
         <v>2</v>
       </c>
@@ -4659,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A339">
         <v>2</v>
       </c>
@@ -4670,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A340">
         <v>1</v>
       </c>
@@ -4681,7 +4713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A341">
         <v>1</v>
       </c>
@@ -4692,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A342">
         <v>1</v>
       </c>
@@ -4703,7 +4735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A343">
         <v>1</v>
       </c>
@@ -4714,7 +4746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A344">
         <v>1</v>
       </c>
@@ -4725,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A345">
         <v>1</v>
       </c>
@@ -4736,7 +4768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A346">
         <v>1</v>
       </c>
@@ -4747,7 +4779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A347">
         <v>2</v>
       </c>
@@ -4758,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A348">
         <v>1</v>
       </c>
@@ -4769,7 +4801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A349">
         <v>1</v>
       </c>
@@ -4780,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A350">
         <v>5</v>
       </c>
@@ -4791,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A351">
         <v>1</v>
       </c>
@@ -4802,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A352">
         <v>1</v>
       </c>
@@ -4813,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A353">
         <v>5</v>
       </c>
@@ -4824,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A354">
         <v>1</v>
       </c>
@@ -4835,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A355">
         <v>1</v>
       </c>
@@ -4846,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A356">
         <v>2</v>
       </c>
@@ -4857,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A357">
         <v>5</v>
       </c>
@@ -4868,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A358">
         <v>1</v>
       </c>
@@ -4879,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A359">
         <v>1</v>
       </c>
@@ -4890,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A360">
         <v>5</v>
       </c>
@@ -4901,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A361">
         <v>1</v>
       </c>
@@ -4912,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A362">
         <v>5</v>
       </c>
@@ -4923,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A363">
         <v>1</v>
       </c>
@@ -4934,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A364">
         <v>1</v>
       </c>
@@ -4945,7 +4977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A365">
         <v>1</v>
       </c>
@@ -4956,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A366">
         <v>3</v>
       </c>
@@ -4967,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A367">
         <v>1</v>
       </c>
@@ -4978,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A368">
         <v>1</v>
       </c>
@@ -4989,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A369">
         <v>1</v>
       </c>
@@ -5000,7 +5032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A370">
         <v>1</v>
       </c>
@@ -5011,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A371">
         <v>1</v>
       </c>
@@ -5022,7 +5054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A372">
         <v>5</v>
       </c>
@@ -5033,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A373">
         <v>1</v>
       </c>
@@ -5044,7 +5076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A374">
         <v>1</v>
       </c>
@@ -5055,7 +5087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A375">
         <v>1</v>
       </c>
@@ -5066,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A376">
         <v>1</v>
       </c>
@@ -5077,7 +5109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A377">
         <v>4</v>
       </c>
@@ -5088,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A378">
         <v>1</v>
       </c>
@@ -5099,7 +5131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A379">
         <v>4</v>
       </c>
@@ -5110,7 +5142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A380">
         <v>1</v>
       </c>
@@ -5121,7 +5153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A381">
         <v>1</v>
       </c>
@@ -5132,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A382">
         <v>10</v>
       </c>
@@ -5143,7 +5175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A383">
         <v>1</v>
       </c>
@@ -5154,7 +5186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A384">
         <v>1</v>
       </c>
@@ -5165,7 +5197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A385">
         <v>2</v>
       </c>
@@ -5176,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A386">
         <v>1</v>
       </c>
@@ -5187,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A387">
         <v>4</v>
       </c>
@@ -5198,7 +5230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A388">
         <v>1</v>
       </c>
@@ -5209,7 +5241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A389">
         <v>1</v>
       </c>
@@ -5220,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A390">
         <v>1</v>
       </c>
@@ -5231,7 +5263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391">
         <v>1</v>
       </c>
@@ -5242,7 +5274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A392">
         <v>1</v>
       </c>
@@ -5253,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A393">
         <v>5</v>
       </c>
@@ -5264,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A394">
         <v>1</v>
       </c>
@@ -5275,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A395">
         <v>10</v>
       </c>
@@ -5286,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A396">
         <v>1</v>
       </c>
@@ -5297,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A397">
         <v>1</v>
       </c>
@@ -5308,7 +5340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A398">
         <v>1</v>
       </c>
@@ -5319,7 +5351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A399">
         <v>5</v>
       </c>
@@ -5330,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A400">
         <v>1</v>
       </c>
@@ -5341,7 +5373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A401">
         <v>1</v>
       </c>
@@ -5352,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A402">
         <v>10</v>
       </c>
@@ -5363,7 +5395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A403">
         <v>1</v>
       </c>
@@ -5374,7 +5406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A404">
         <v>1</v>
       </c>
@@ -5385,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A405">
         <v>9</v>
       </c>
@@ -5396,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A406">
         <v>1</v>
       </c>
@@ -5407,7 +5439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A407">
         <v>7</v>
       </c>
@@ -5418,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A408">
         <v>5</v>
       </c>
@@ -5429,7 +5461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A409">
         <v>1</v>
       </c>
@@ -5440,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A410">
         <v>4</v>
       </c>
@@ -5451,7 +5483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A411">
         <v>1</v>
       </c>
@@ -5462,7 +5494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A412">
         <v>1</v>
       </c>
@@ -5473,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A413">
         <v>7</v>
       </c>
@@ -5484,7 +5516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A414">
         <v>1</v>
       </c>
@@ -5495,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A415">
         <v>1</v>
       </c>
@@ -5506,7 +5538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A416">
         <v>1</v>
       </c>
@@ -5517,7 +5549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A417">
         <v>5</v>
       </c>
@@ -5528,7 +5560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A418">
         <v>1</v>
       </c>
@@ -5539,7 +5571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A419">
         <v>1</v>
       </c>
@@ -5550,7 +5582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A420">
         <v>1</v>
       </c>
@@ -5561,7 +5593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A421">
         <v>12</v>
       </c>
@@ -5572,7 +5604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A422">
         <v>11</v>
       </c>
@@ -5583,7 +5615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A423">
         <v>1</v>
       </c>
@@ -5594,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A424">
         <v>5</v>
       </c>
@@ -5605,7 +5637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A425">
         <v>1</v>
       </c>
@@ -5616,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A426">
         <v>2</v>
       </c>
@@ -5627,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A427">
         <v>5</v>
       </c>
@@ -5638,7 +5670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A428">
         <v>1</v>
       </c>
@@ -5649,7 +5681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A429">
         <v>1</v>
       </c>
@@ -5660,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A430">
         <v>5</v>
       </c>
@@ -5671,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A431">
         <v>1</v>
       </c>
@@ -5682,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A432">
         <v>1</v>
       </c>
@@ -5693,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A433">
         <v>5</v>
       </c>
@@ -5704,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A434">
         <v>1</v>
       </c>
@@ -5715,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A435">
         <v>1</v>
       </c>
@@ -5726,7 +5758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A436">
         <v>1</v>
       </c>
@@ -5737,7 +5769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A437">
         <v>1</v>
       </c>
@@ -5748,7 +5780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A438">
         <v>1</v>
       </c>
@@ -5759,7 +5791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A439">
         <v>1</v>
       </c>
@@ -5770,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A440">
         <v>1</v>
       </c>
@@ -5781,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A441">
         <v>1</v>
       </c>
@@ -5792,7 +5824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A442">
         <v>1</v>
       </c>
@@ -5803,7 +5835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A443">
         <v>1</v>
       </c>
@@ -5814,7 +5846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A444">
         <v>1</v>
       </c>
@@ -5825,7 +5857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A445">
         <v>1</v>
       </c>
@@ -5836,7 +5868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A446">
         <v>2</v>
       </c>
@@ -5847,7 +5879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A447">
         <v>2</v>
       </c>
@@ -5858,7 +5890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A448">
         <v>1</v>
       </c>
@@ -5869,7 +5901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A449">
         <v>1</v>
       </c>
@@ -5880,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A450">
         <v>1</v>
       </c>
@@ -5891,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A451">
         <v>1</v>
       </c>
@@ -5902,7 +5934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A452">
         <v>1</v>
       </c>
@@ -5913,7 +5945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A453">
         <v>1</v>
       </c>
@@ -5924,7 +5956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A454">
         <v>1</v>
       </c>
@@ -5935,7 +5967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A455">
         <v>1</v>
       </c>
@@ -5946,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A456">
         <v>2</v>
       </c>
@@ -5957,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A457">
         <v>1</v>
       </c>
@@ -5968,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A458">
         <v>1</v>
       </c>
@@ -5979,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A459">
         <v>1</v>
       </c>
@@ -5990,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A460">
         <v>1</v>
       </c>
@@ -6001,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A461">
         <v>1</v>
       </c>
@@ -6012,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A462">
         <v>5</v>
       </c>
@@ -6023,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A463">
         <v>1</v>
       </c>
@@ -6034,7 +6066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A464">
         <v>12</v>
       </c>
@@ -6045,7 +6077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A465">
         <v>1</v>
       </c>
@@ -6056,7 +6088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A466">
         <v>2</v>
       </c>
@@ -6067,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A467">
         <v>1</v>
       </c>
@@ -6078,7 +6110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A468">
         <v>1</v>
       </c>
@@ -6089,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A469">
         <v>1</v>
       </c>
@@ -6100,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A470">
         <v>10</v>
       </c>
@@ -6111,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A471">
         <v>1</v>
       </c>
@@ -6122,7 +6154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A472">
         <v>1</v>
       </c>
@@ -6133,7 +6165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A473">
         <v>1</v>
       </c>
@@ -6144,7 +6176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A474">
         <v>9</v>
       </c>
@@ -6155,7 +6187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A475">
         <v>1</v>
       </c>
@@ -6166,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A476">
         <v>1</v>
       </c>
@@ -6177,7 +6209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A477">
         <v>1</v>
       </c>
@@ -6188,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A478">
         <v>1</v>
       </c>
@@ -6199,7 +6231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A479">
         <v>1</v>
       </c>
@@ -6210,7 +6242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A480">
         <v>9</v>
       </c>
@@ -6221,7 +6253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A481">
         <v>2</v>
       </c>
@@ -6232,7 +6264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A482">
         <v>1</v>
       </c>
@@ -6243,7 +6275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A483">
         <v>1</v>
       </c>
@@ -6254,7 +6286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A484">
         <v>1</v>
       </c>
@@ -6265,7 +6297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A485">
         <v>2</v>
       </c>
@@ -6276,7 +6308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A486">
         <v>1</v>
       </c>
@@ -6287,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A487">
         <v>2</v>
       </c>
@@ -6298,7 +6330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A488">
         <v>1</v>
       </c>
@@ -6309,7 +6341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A489">
         <v>1</v>
       </c>
@@ -6320,7 +6352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A490">
         <v>1</v>
       </c>
@@ -6331,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A491">
         <v>1</v>
       </c>
@@ -6342,7 +6374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A492">
         <v>1</v>
       </c>
@@ -6353,7 +6385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A493">
         <v>1</v>
       </c>
@@ -6364,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A494">
         <v>1</v>
       </c>
@@ -6375,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A495">
         <v>1</v>
       </c>
@@ -6386,7 +6418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A496">
         <v>3</v>
       </c>
@@ -6397,7 +6429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A497">
         <v>2</v>
       </c>
@@ -6408,7 +6440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A498">
         <v>1</v>
       </c>
@@ -6419,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A499">
         <v>4</v>
       </c>
@@ -6430,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A500">
         <v>1</v>
       </c>
@@ -6441,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A501">
         <v>4</v>
       </c>
@@ -6452,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A502">
         <v>7</v>
       </c>
@@ -6463,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A503">
         <v>6</v>
       </c>
@@ -6474,7 +6506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A504">
         <v>1</v>
       </c>
@@ -6485,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A505">
         <v>12</v>
       </c>
@@ -6496,7 +6528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A506">
         <v>1</v>
       </c>
@@ -6507,7 +6539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A507">
         <v>1</v>
       </c>
@@ -6518,7 +6550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A508">
         <v>1</v>
       </c>
@@ -6529,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A509">
         <v>1</v>
       </c>
@@ -6540,7 +6572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A510">
         <v>1</v>
       </c>
@@ -6551,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A511">
         <v>5</v>
       </c>
@@ -6562,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A512">
         <v>14</v>
       </c>
@@ -6573,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A513">
         <v>1</v>
       </c>
@@ -6584,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A514">
         <v>2</v>
       </c>
@@ -6595,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A515">
         <v>7</v>
       </c>
@@ -6606,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A516">
         <v>1</v>
       </c>
@@ -6617,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A517">
         <v>1</v>
       </c>
@@ -6628,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A518">
         <v>2</v>
       </c>
@@ -6639,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A519">
         <v>1</v>
       </c>
@@ -6650,7 +6682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A520">
         <v>1</v>
       </c>
@@ -6661,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A521">
         <v>1</v>
       </c>
@@ -6672,7 +6704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A522">
         <v>5</v>
       </c>
@@ -6683,7 +6715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A523">
         <v>1</v>
       </c>
@@ -6694,7 +6726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A524">
         <v>1</v>
       </c>
@@ -6705,7 +6737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A525">
         <v>2</v>
       </c>
@@ -6716,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A526">
         <v>1</v>
       </c>
@@ -6727,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A527">
         <v>5</v>
       </c>
@@ -6738,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A528">
         <v>1</v>
       </c>
@@ -6749,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A529">
         <v>1</v>
       </c>
@@ -6760,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A530">
         <v>1</v>
       </c>
@@ -6771,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A531">
         <v>5</v>
       </c>
@@ -6782,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A532">
         <v>2</v>
       </c>
@@ -6793,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A533">
         <v>1</v>
       </c>
@@ -6804,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A534">
         <v>1</v>
       </c>
@@ -6815,7 +6847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A535">
         <v>2</v>
       </c>
@@ -6826,7 +6858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A536">
         <v>1</v>
       </c>
@@ -6837,7 +6869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A537">
         <v>4</v>
       </c>
@@ -6848,7 +6880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A538">
         <v>1</v>
       </c>
@@ -6859,7 +6891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A539">
         <v>8</v>
       </c>
@@ -6870,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A540">
         <v>1</v>
       </c>
@@ -6881,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A541">
         <v>1</v>
       </c>
@@ -6892,7 +6924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A542">
         <v>3</v>
       </c>
@@ -6903,7 +6935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A543">
         <v>5</v>
       </c>
@@ -6914,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A544">
         <v>3</v>
       </c>
@@ -6925,7 +6957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A545">
         <v>1</v>
       </c>
@@ -6936,7 +6968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A546">
         <v>1</v>
       </c>
@@ -6947,7 +6979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A547">
         <v>1</v>
       </c>
@@ -6958,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A548">
         <v>5</v>
       </c>
@@ -6969,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A549">
         <v>1</v>
       </c>
@@ -6980,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A550">
         <v>1</v>
       </c>
@@ -6991,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A551">
         <v>1</v>
       </c>
@@ -7002,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A552">
         <v>1</v>
       </c>
@@ -7013,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A553">
         <v>1</v>
       </c>
@@ -7024,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A554">
         <v>1</v>
       </c>
@@ -7035,7 +7067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A555">
         <v>2</v>
       </c>
@@ -7046,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A556">
         <v>2</v>
       </c>
@@ -7057,7 +7089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A557">
         <v>1</v>
       </c>
@@ -7068,7 +7100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A558">
         <v>15</v>
       </c>
@@ -7079,7 +7111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A559">
         <v>2</v>
       </c>
@@ -7090,7 +7122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A560">
         <v>1</v>
       </c>
@@ -7101,7 +7133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A561">
         <v>1</v>
       </c>
@@ -7112,7 +7144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A562">
         <v>1</v>
       </c>
@@ -7123,7 +7155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A563">
         <v>1</v>
       </c>
@@ -7134,7 +7166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A564">
         <v>3</v>
       </c>
@@ -7145,7 +7177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A565">
         <v>1</v>
       </c>
@@ -7156,7 +7188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A566">
         <v>1</v>
       </c>
@@ -7167,7 +7199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A567">
         <v>1</v>
       </c>
@@ -7178,7 +7210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A568">
         <v>2</v>
       </c>
@@ -7189,7 +7221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A569">
         <v>1</v>
       </c>
@@ -7200,7 +7232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A570">
         <v>1</v>
       </c>
@@ -7211,7 +7243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A571">
         <v>1</v>
       </c>
@@ -7222,7 +7254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A572">
         <v>1</v>
       </c>
@@ -7233,7 +7265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A573">
         <v>1</v>
       </c>
@@ -7244,7 +7276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A574">
         <v>1</v>
       </c>
@@ -7255,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A575">
         <v>1</v>
       </c>
@@ -7266,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A576">
         <v>1</v>
       </c>
@@ -7277,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A577">
         <v>1</v>
       </c>
@@ -7288,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A578">
         <v>13</v>
       </c>
@@ -7299,7 +7331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A579">
         <v>13</v>
       </c>
@@ -7310,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A580">
         <v>1</v>
       </c>
@@ -7321,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A581">
         <v>1</v>
       </c>
@@ -7332,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A582">
         <v>1</v>
       </c>
@@ -7343,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A583">
         <v>1</v>
       </c>
@@ -7354,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A584">
         <v>12</v>
       </c>
@@ -7365,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A585">
         <v>2</v>
       </c>
@@ -7376,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A586">
         <v>2</v>
       </c>
@@ -7387,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A587">
         <v>2</v>
       </c>
@@ -7398,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A588">
         <v>3</v>
       </c>
@@ -7409,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A589">
         <v>1</v>
       </c>
@@ -7420,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A590">
         <v>1</v>
       </c>
@@ -7431,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A591">
         <v>1</v>
       </c>
@@ -7442,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A592">
         <v>8</v>
       </c>
@@ -7453,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A593">
         <v>3</v>
       </c>
@@ -7464,7 +7496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A594">
         <v>2</v>
       </c>
@@ -7475,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A595">
         <v>1</v>
       </c>
@@ -7486,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A596">
         <v>5</v>
       </c>
@@ -7497,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A597">
         <v>1</v>
       </c>
@@ -7508,7 +7540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A598">
         <v>5</v>
       </c>
@@ -7519,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A599">
         <v>1</v>
       </c>
@@ -7530,7 +7562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A600">
         <v>1</v>
       </c>
@@ -7541,7 +7573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A601">
         <v>1</v>
       </c>
@@ -7552,7 +7584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A602">
         <v>1</v>
       </c>
@@ -7563,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A603">
         <v>13</v>
       </c>
@@ -7574,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A604">
         <v>1</v>
       </c>
@@ -7585,7 +7617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A605">
         <v>7</v>
       </c>
@@ -7596,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A606">
         <v>5</v>
       </c>
@@ -7607,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A607">
         <v>2</v>
       </c>
@@ -7618,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A608">
         <v>1</v>
       </c>
@@ -7629,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A609">
         <v>1</v>
       </c>
@@ -7640,7 +7672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A610">
         <v>5</v>
       </c>
@@ -7651,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A611">
         <v>10</v>
       </c>
@@ -7662,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A612">
         <v>1</v>
       </c>
@@ -7673,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A613">
         <v>1</v>
       </c>
@@ -7684,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A614">
         <v>5</v>
       </c>
@@ -7695,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A615">
         <v>3</v>
       </c>
@@ -7706,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A616">
         <v>1</v>
       </c>
@@ -7717,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A617">
         <v>1</v>
       </c>
@@ -7728,7 +7760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A618">
         <v>3</v>
       </c>
@@ -7739,7 +7771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A619">
         <v>1</v>
       </c>
@@ -7750,7 +7782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A620">
         <v>1</v>
       </c>
@@ -7761,7 +7793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A621">
         <v>1</v>
       </c>
@@ -7772,7 +7804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A622">
         <v>1</v>
       </c>
@@ -7783,7 +7815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A623">
         <v>1</v>
       </c>
@@ -7794,7 +7826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A624">
         <v>1</v>
       </c>
@@ -7805,7 +7837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A625">
         <v>1</v>
       </c>
@@ -7816,7 +7848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A626">
         <v>2</v>
       </c>
@@ -7827,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A627">
         <v>1</v>
       </c>
@@ -7838,7 +7870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A628">
         <v>5</v>
       </c>
@@ -7849,7 +7881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A629">
         <v>1</v>
       </c>
@@ -7860,7 +7892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A630">
         <v>2</v>
       </c>
@@ -7871,7 +7903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A631">
         <v>1</v>
       </c>
@@ -7882,7 +7914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A632">
         <v>1</v>
       </c>
@@ -7893,7 +7925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A633">
         <v>2</v>
       </c>
@@ -7904,7 +7936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A634">
         <v>1</v>
       </c>
@@ -7915,7 +7947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A635">
         <v>1</v>
       </c>
@@ -7926,7 +7958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A636">
         <v>1</v>
       </c>
@@ -7937,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A637">
         <v>1</v>
       </c>
@@ -7948,7 +7980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A638">
         <v>1</v>
       </c>
@@ -7959,7 +7991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A639">
         <v>2</v>
       </c>
@@ -7970,7 +8002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A640">
         <v>5</v>
       </c>
@@ -7981,7 +8013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A641">
         <v>1</v>
       </c>
@@ -7992,7 +8024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A642">
         <v>1</v>
       </c>
@@ -8003,7 +8035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A643">
         <v>5</v>
       </c>
@@ -8014,7 +8046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A644">
         <v>1</v>
       </c>
@@ -8025,7 +8057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A645">
         <v>1</v>
       </c>
@@ -8036,7 +8068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A646">
         <v>1</v>
       </c>
@@ -8047,7 +8079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A647">
         <v>1</v>
       </c>
@@ -8058,7 +8090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A648">
         <v>1</v>
       </c>
@@ -8069,7 +8101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A649">
         <v>1</v>
       </c>
@@ -8080,7 +8112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A650">
         <v>2</v>
       </c>
@@ -8091,7 +8123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A651">
         <v>1</v>
       </c>
@@ -8102,7 +8134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A652">
         <v>1</v>
       </c>
@@ -8113,7 +8145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A653">
         <v>1</v>
       </c>
@@ -8124,7 +8156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A654">
         <v>2</v>
       </c>
@@ -8135,7 +8167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A655">
         <v>1</v>
       </c>
@@ -8146,7 +8178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A656">
         <v>1</v>
       </c>
@@ -8157,7 +8189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A657">
         <v>1</v>
       </c>
@@ -8168,7 +8200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A658">
         <v>1</v>
       </c>
@@ -8179,7 +8211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A659">
         <v>1</v>
       </c>
@@ -8190,7 +8222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A660">
         <v>1</v>
       </c>
@@ -8201,7 +8233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A661">
         <v>12</v>
       </c>
@@ -8212,7 +8244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A662">
         <v>1</v>
       </c>
@@ -8223,7 +8255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A663">
         <v>4</v>
       </c>
@@ -8234,7 +8266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A664">
         <v>1</v>
       </c>
@@ -8245,7 +8277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A665">
         <v>5</v>
       </c>
@@ -8263,132 +8295,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -8398,98 +8438,138 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.83984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>